--- a/post_processing/house/2016/2016_house_results_national.xlsx
+++ b/post_processing/house/2016/2016_house_results_national.xlsx
@@ -573,7 +573,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -587,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>111640</v>
@@ -604,7 +604,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>93567</v>
@@ -621,7 +621,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>101577</v>
@@ -652,7 +652,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>81296</v>
@@ -669,7 +669,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>90784</v>
@@ -703,7 +703,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>117048</v>
@@ -723,7 +723,7 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>120572</v>
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>68460</v>
@@ -771,7 +771,7 @@
         <v>8</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14">
         <v>92225</v>
@@ -788,7 +788,7 @@
         <v>8</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>99008</v>
@@ -805,7 +805,7 @@
         <v>8</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>88219</v>
@@ -822,7 +822,7 @@
         <v>8</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>165593</v>
@@ -839,7 +839,7 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>132281</v>
@@ -856,7 +856,7 @@
         <v>9</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>183068</v>
@@ -873,7 +873,7 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>111049</v>
@@ -893,7 +893,7 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>214268</v>
@@ -910,7 +910,7 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <v>181921</v>
@@ -927,7 +927,7 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>112183</v>
@@ -944,7 +944,7 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>177724</v>
@@ -961,7 +961,7 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>127623</v>
@@ -978,7 +978,7 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <v>116541</v>
@@ -995,7 +995,7 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27">
         <v>172810</v>
@@ -1012,7 +1012,7 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>145704</v>
@@ -1029,7 +1029,7 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>129064</v>
@@ -1046,7 +1046,7 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30">
         <v>76999</v>
@@ -1063,7 +1063,7 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31">
         <v>106256</v>
@@ -1080,7 +1080,7 @@
         <v>10</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32">
         <v>100646</v>
@@ -1097,7 +1097,7 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33">
         <v>194345</v>
@@ -1114,7 +1114,7 @@
         <v>10</v>
       </c>
       <c r="C34">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34">
         <v>250378</v>
@@ -1128,7 +1128,7 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35">
         <v>277390</v>
@@ -1145,7 +1145,7 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36">
         <v>213612</v>
@@ -1162,7 +1162,7 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37">
         <v>188179</v>
@@ -1179,7 +1179,7 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38">
         <v>72111</v>
@@ -1196,7 +1196,7 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D39">
         <v>222112</v>
@@ -1210,7 +1210,7 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D40">
         <v>220139</v>
@@ -1227,7 +1227,7 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D41">
         <v>171688</v>
@@ -1244,7 +1244,7 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D42">
         <v>144870</v>
@@ -1261,7 +1261,7 @@
         <v>10</v>
       </c>
       <c r="C43">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D43">
         <v>49643</v>
@@ -1278,7 +1278,7 @@
         <v>10</v>
       </c>
       <c r="C44">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D44">
         <v>66802</v>
@@ -1295,7 +1295,7 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D45">
         <v>64842</v>
@@ -1312,7 +1312,7 @@
         <v>10</v>
       </c>
       <c r="C46">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D46">
         <v>155492</v>
@@ -1329,7 +1329,7 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D47">
         <v>95296</v>
@@ -1346,7 +1346,7 @@
         <v>10</v>
       </c>
       <c r="C48">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D48">
         <v>148550</v>
@@ -1363,7 +1363,7 @@
         <v>10</v>
       </c>
       <c r="C49">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D49">
         <v>133766</v>
@@ -1380,7 +1380,7 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50">
         <v>168082</v>
@@ -1397,7 +1397,7 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D51">
         <v>131535</v>
@@ -1411,7 +1411,7 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D52">
         <v>159974</v>
@@ -1428,7 +1428,7 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D53">
         <v>111870</v>
@@ -1445,7 +1445,7 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D54">
         <v>149109</v>
@@ -1459,7 +1459,7 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D55">
         <v>173778</v>
@@ -1476,7 +1476,7 @@
         <v>10</v>
       </c>
       <c r="C56">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D56">
         <v>124396</v>
@@ -1490,7 +1490,7 @@
         <v>10</v>
       </c>
       <c r="C57">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D57">
         <v>109767</v>
@@ -1507,7 +1507,7 @@
         <v>10</v>
       </c>
       <c r="C58">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D58">
         <v>132252</v>
@@ -1524,7 +1524,7 @@
         <v>10</v>
       </c>
       <c r="C59">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D59">
         <v>183617</v>
@@ -1538,7 +1538,7 @@
         <v>10</v>
       </c>
       <c r="C60">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D60">
         <v>131099</v>
@@ -1555,7 +1555,7 @@
         <v>10</v>
       </c>
       <c r="C61">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D61">
         <v>101651</v>
@@ -1572,7 +1572,7 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D62">
         <v>82789</v>
@@ -1586,7 +1586,7 @@
         <v>10</v>
       </c>
       <c r="C63">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D63">
         <v>115859</v>
@@ -1603,7 +1603,7 @@
         <v>10</v>
       </c>
       <c r="C64">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D64">
         <v>97123</v>
@@ -1620,7 +1620,7 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D65">
         <v>128551</v>
@@ -1637,7 +1637,7 @@
         <v>10</v>
       </c>
       <c r="C66">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D66">
         <v>137480</v>
@@ -1651,7 +1651,7 @@
         <v>10</v>
       </c>
       <c r="C67">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D67">
         <v>119521</v>
@@ -1668,7 +1668,7 @@
         <v>10</v>
       </c>
       <c r="C68">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D68">
         <v>148127</v>
@@ -1682,7 +1682,7 @@
         <v>10</v>
       </c>
       <c r="C69">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D69">
         <v>127832</v>
@@ -1699,7 +1699,7 @@
         <v>10</v>
       </c>
       <c r="C70">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D70">
         <v>117716</v>
@@ -1716,7 +1716,7 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D71">
         <v>129100</v>
@@ -1733,7 +1733,7 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D72">
         <v>84142</v>
@@ -1750,7 +1750,7 @@
         <v>10</v>
       </c>
       <c r="C73">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D73">
         <v>108932</v>
@@ -1767,7 +1767,7 @@
         <v>10</v>
       </c>
       <c r="C74">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D74">
         <v>148651</v>
@@ -1784,7 +1784,7 @@
         <v>10</v>
       </c>
       <c r="C75">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D75">
         <v>151269</v>
@@ -1801,7 +1801,7 @@
         <v>11</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>189837</v>
@@ -1821,7 +1821,7 @@
         <v>11</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77">
         <v>251988</v>
@@ -1841,7 +1841,7 @@
         <v>11</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78">
         <v>142794</v>
@@ -1861,7 +1861,7 @@
         <v>11</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79">
         <v>119249</v>
@@ -1881,7 +1881,7 @@
         <v>11</v>
       </c>
       <c r="C80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80">
         <v>109573</v>
@@ -1901,7 +1901,7 @@
         <v>11</v>
       </c>
       <c r="C81">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D81">
         <v>149417</v>
@@ -1924,7 +1924,7 @@
         <v>11</v>
       </c>
       <c r="C82">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D82">
         <v>185208</v>
@@ -1944,7 +1944,7 @@
         <v>12</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>193040</v>
@@ -1964,7 +1964,7 @@
         <v>12</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84">
         <v>207584</v>
@@ -1987,7 +1987,7 @@
         <v>12</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85">
         <v>208900</v>
@@ -2004,7 +2004,7 @@
         <v>12</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86">
         <v>185928</v>
@@ -2021,7 +2021,7 @@
         <v>12</v>
       </c>
       <c r="C87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87">
         <v>174788</v>
@@ -2038,7 +2038,7 @@
         <v>13</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>233542</v>
@@ -2061,7 +2061,7 @@
         <v>14</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>113586</v>
@@ -2078,7 +2078,7 @@
         <v>14</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D90">
         <v>102596</v>
@@ -2098,7 +2098,7 @@
         <v>14</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91">
         <v>135688</v>
@@ -2115,7 +2115,7 @@
         <v>14</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92">
         <v>112253</v>
@@ -2132,7 +2132,7 @@
         <v>14</v>
       </c>
       <c r="C93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93">
         <v>193430</v>
@@ -2149,7 +2149,7 @@
         <v>14</v>
       </c>
       <c r="C94">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D94">
         <v>150677</v>
@@ -2166,7 +2166,7 @@
         <v>14</v>
       </c>
       <c r="C95">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D95">
         <v>181758</v>
@@ -2183,7 +2183,7 @@
         <v>14</v>
       </c>
       <c r="C96">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D96">
         <v>126962</v>
@@ -2200,7 +2200,7 @@
         <v>14</v>
       </c>
       <c r="C97">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D97">
         <v>194963</v>
@@ -2217,7 +2217,7 @@
         <v>14</v>
       </c>
       <c r="C98">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D98">
         <v>198309</v>
@@ -2234,7 +2234,7 @@
         <v>14</v>
       </c>
       <c r="C99">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D99">
         <v>124599</v>
@@ -2251,7 +2251,7 @@
         <v>14</v>
       </c>
       <c r="C100">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D100">
         <v>115909</v>
@@ -2268,7 +2268,7 @@
         <v>14</v>
       </c>
       <c r="C101">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D101">
         <v>184371</v>
@@ -2285,7 +2285,7 @@
         <v>14</v>
       </c>
       <c r="C102">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D102">
         <v>194851</v>
@@ -2302,7 +2302,7 @@
         <v>14</v>
       </c>
       <c r="C103">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D103">
         <v>134945</v>
@@ -2319,7 +2319,7 @@
         <v>14</v>
       </c>
       <c r="C104">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D104">
         <v>154854</v>
@@ -2336,7 +2336,7 @@
         <v>14</v>
       </c>
       <c r="C105">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D105">
         <v>115801</v>
@@ -2353,7 +2353,7 @@
         <v>14</v>
       </c>
       <c r="C106">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D106">
         <v>161328</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="C107">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D107">
         <v>123625</v>
@@ -2387,7 +2387,7 @@
         <v>14</v>
       </c>
       <c r="C108">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D108">
         <v>220452</v>
@@ -2404,7 +2404,7 @@
         <v>14</v>
       </c>
       <c r="C109">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D109">
         <v>208999</v>
@@ -2421,7 +2421,7 @@
         <v>14</v>
       </c>
       <c r="C110">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D110">
         <v>197396</v>
@@ -2438,7 +2438,7 @@
         <v>14</v>
       </c>
       <c r="C111">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D111">
         <v>180979</v>
@@ -2455,7 +2455,7 @@
         <v>14</v>
       </c>
       <c r="C112">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -2469,7 +2469,7 @@
         <v>14</v>
       </c>
       <c r="C113">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D113">
         <v>95008</v>
@@ -2486,7 +2486,7 @@
         <v>14</v>
       </c>
       <c r="C114">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D114">
         <v>115348</v>
@@ -2503,7 +2503,7 @@
         <v>14</v>
       </c>
       <c r="C115">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D115">
         <v>129548</v>
@@ -2520,7 +2520,7 @@
         <v>15</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>15</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117">
         <v>146284</v>
@@ -2551,7 +2551,7 @@
         <v>15</v>
       </c>
       <c r="C118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D118">
         <v>95736</v>
@@ -2568,7 +2568,7 @@
         <v>15</v>
       </c>
       <c r="C119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D119">
         <v>214278</v>
@@ -2585,7 +2585,7 @@
         <v>15</v>
       </c>
       <c r="C120">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D120">
         <v>241773</v>
@@ -2602,7 +2602,7 @@
         <v>15</v>
       </c>
       <c r="C121">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D121">
         <v>119536</v>
@@ -2619,7 +2619,7 @@
         <v>15</v>
       </c>
       <c r="C122">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D122">
         <v>113593</v>
@@ -2636,7 +2636,7 @@
         <v>15</v>
       </c>
       <c r="C123">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D123">
         <v>81903</v>
@@ -2653,7 +2653,7 @@
         <v>15</v>
       </c>
       <c r="C124">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -2667,7 +2667,7 @@
         <v>15</v>
       </c>
       <c r="C125">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>15</v>
       </c>
       <c r="C126">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D126">
         <v>104401</v>
@@ -2698,7 +2698,7 @@
         <v>15</v>
       </c>
       <c r="C127">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D127">
         <v>98870</v>
@@ -2715,7 +2715,7 @@
         <v>15</v>
       </c>
       <c r="C128">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -2729,7 +2729,7 @@
         <v>15</v>
       </c>
       <c r="C129">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -2743,7 +2743,7 @@
         <v>16</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D130">
         <v>135069</v>
@@ -2763,7 +2763,7 @@
         <v>16</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131">
         <v>163484</v>
@@ -2780,7 +2780,7 @@
         <v>17</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D132">
         <v>111035</v>
@@ -2797,7 +2797,7 @@
         <v>17</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133">
         <v>97250</v>
@@ -2814,7 +2814,7 @@
         <v>18</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D134">
         <v>221551</v>
@@ -2831,7 +2831,7 @@
         <v>18</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135">
         <v>229184</v>
@@ -2848,7 +2848,7 @@
         <v>18</v>
       </c>
       <c r="C136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -2862,7 +2862,7 @@
         <v>18</v>
       </c>
       <c r="C137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>18</v>
       </c>
       <c r="C138">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D138">
         <v>201983</v>
@@ -2896,7 +2896,7 @@
         <v>18</v>
       </c>
       <c r="C139">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D139">
         <v>140023</v>
@@ -2913,7 +2913,7 @@
         <v>18</v>
       </c>
       <c r="C140">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D140">
         <v>232322</v>
@@ -2930,7 +2930,7 @@
         <v>18</v>
       </c>
       <c r="C141">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D141">
         <v>141138</v>
@@ -2947,7 +2947,7 @@
         <v>18</v>
       </c>
       <c r="C142">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D142">
         <v>203834</v>
@@ -2964,7 +2964,7 @@
         <v>18</v>
       </c>
       <c r="C143">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D143">
         <v>147299</v>
@@ -2981,7 +2981,7 @@
         <v>18</v>
       </c>
       <c r="C144">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D144">
         <v>157659</v>
@@ -2998,7 +2998,7 @@
         <v>18</v>
       </c>
       <c r="C145">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D145">
         <v>123754</v>
@@ -3018,7 +3018,7 @@
         <v>18</v>
       </c>
       <c r="C146">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D146">
         <v>125932</v>
@@ -3035,7 +3035,7 @@
         <v>18</v>
       </c>
       <c r="C147">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D147">
         <v>134362</v>
@@ -3052,7 +3052,7 @@
         <v>18</v>
       </c>
       <c r="C148">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -3066,7 +3066,7 @@
         <v>18</v>
       </c>
       <c r="C149">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>18</v>
       </c>
       <c r="C150">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D150">
         <v>170746</v>
@@ -3097,7 +3097,7 @@
         <v>18</v>
       </c>
       <c r="C151">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D151">
         <v>95741</v>
@@ -3114,7 +3114,7 @@
         <v>19</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D152">
         <v>207299</v>
@@ -3131,7 +3131,7 @@
         <v>19</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153">
         <v>102332</v>
@@ -3151,7 +3151,7 @@
         <v>19</v>
       </c>
       <c r="C154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D154">
         <v>65908</v>
@@ -3171,7 +3171,7 @@
         <v>19</v>
       </c>
       <c r="C155">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D155">
         <v>91153</v>
@@ -3191,7 +3191,7 @@
         <v>19</v>
       </c>
       <c r="C156">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D156">
         <v>123791</v>
@@ -3211,7 +3211,7 @@
         <v>19</v>
       </c>
       <c r="C157">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D157">
         <v>79075</v>
@@ -3231,7 +3231,7 @@
         <v>19</v>
       </c>
       <c r="C158">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D158">
         <v>158606</v>
@@ -3251,7 +3251,7 @@
         <v>19</v>
       </c>
       <c r="C159">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D159">
         <v>93130</v>
@@ -3271,7 +3271,7 @@
         <v>19</v>
       </c>
       <c r="C160">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D160">
         <v>130539</v>
@@ -3291,7 +3291,7 @@
         <v>20</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D161">
         <v>176447</v>
@@ -3308,7 +3308,7 @@
         <v>20</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D162">
         <v>197802</v>
@@ -3325,7 +3325,7 @@
         <v>20</v>
       </c>
       <c r="C163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D163">
         <v>154780</v>
@@ -3345,7 +3345,7 @@
         <v>20</v>
       </c>
       <c r="C164">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D164">
         <v>142018</v>
@@ -3362,7 +3362,7 @@
         <v>21</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E165">
         <v>166051</v>
@@ -3379,7 +3379,7 @@
         <v>21</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D166">
         <v>94561</v>
@@ -3399,7 +3399,7 @@
         <v>21</v>
       </c>
       <c r="C167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D167">
         <v>135778</v>
@@ -3419,7 +3419,7 @@
         <v>21</v>
       </c>
       <c r="C168">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D168">
         <v>78822</v>
@@ -3439,7 +3439,7 @@
         <v>22</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D169">
         <v>81710</v>
@@ -3456,7 +3456,7 @@
         <v>22</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>22</v>
       </c>
       <c r="C171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D171">
         <v>212388</v>
@@ -3487,7 +3487,7 @@
         <v>22</v>
       </c>
       <c r="C172">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D172">
         <v>94064</v>
@@ -3504,7 +3504,7 @@
         <v>22</v>
       </c>
       <c r="C173">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>22</v>
       </c>
       <c r="C174">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D174">
         <v>128725</v>
@@ -3535,7 +3535,7 @@
         <v>23</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D175">
         <v>63745</v>
@@ -3558,7 +3558,7 @@
         <v>23</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D176">
         <v>284078</v>
@@ -3572,7 +3572,7 @@
         <v>23</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D177">
         <v>56165</v>
@@ -3592,7 +3592,7 @@
         <v>23</v>
       </c>
       <c r="C178">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D178">
         <v>80558</v>
@@ -3609,7 +3609,7 @@
         <v>23</v>
       </c>
       <c r="C179">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E179">
         <v>255610</v>
@@ -3623,7 +3623,7 @@
         <v>23</v>
       </c>
       <c r="C180">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D180">
         <v>79161</v>
@@ -3643,7 +3643,7 @@
         <v>24</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D181">
         <v>225428</v>
@@ -3660,7 +3660,7 @@
         <v>24</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D182">
         <v>157862</v>
@@ -3677,7 +3677,7 @@
         <v>25</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D183">
         <v>94776</v>
@@ -3697,7 +3697,7 @@
         <v>25</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184">
         <v>172324</v>
@@ -3717,7 +3717,7 @@
         <v>25</v>
       </c>
       <c r="C185">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D185">
         <v>194362</v>
@@ -3737,7 +3737,7 @@
         <v>25</v>
       </c>
       <c r="C186">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D186">
         <v>218215</v>
@@ -3760,7 +3760,7 @@
         <v>25</v>
       </c>
       <c r="C187">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D187">
         <v>223582</v>
@@ -3780,7 +3780,7 @@
         <v>25</v>
       </c>
       <c r="C188">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D188">
         <v>167229</v>
@@ -3803,7 +3803,7 @@
         <v>25</v>
       </c>
       <c r="C189">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D189">
         <v>211962</v>
@@ -3823,7 +3823,7 @@
         <v>25</v>
       </c>
       <c r="C190">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D190">
         <v>191671</v>
@@ -3846,7 +3846,7 @@
         <v>26</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D191">
         <v>233310</v>
@@ -3863,7 +3863,7 @@
         <v>26</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -3877,7 +3877,7 @@
         <v>26</v>
       </c>
       <c r="C193">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D193">
         <v>234361</v>
@@ -3894,7 +3894,7 @@
         <v>26</v>
       </c>
       <c r="C194">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D194">
         <v>261356</v>
@@ -3911,7 +3911,7 @@
         <v>26</v>
       </c>
       <c r="C195">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -3925,7 +3925,7 @@
         <v>26</v>
       </c>
       <c r="C196">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -3939,7 +3939,7 @@
         <v>26</v>
       </c>
       <c r="C197">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -3953,7 +3953,7 @@
         <v>26</v>
       </c>
       <c r="C198">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D198">
         <v>267944</v>
@@ -3970,7 +3970,7 @@
         <v>26</v>
       </c>
       <c r="C199">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D199">
         <v>209911</v>
@@ -3987,7 +3987,7 @@
         <v>27</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D200">
         <v>144319</v>
@@ -4010,7 +4010,7 @@
         <v>27</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D201">
         <v>110077</v>
@@ -4033,7 +4033,7 @@
         <v>27</v>
       </c>
       <c r="C202">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D202">
         <v>128159</v>
@@ -4050,7 +4050,7 @@
         <v>27</v>
       </c>
       <c r="C203">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D203">
         <v>101275</v>
@@ -4073,7 +4073,7 @@
         <v>27</v>
       </c>
       <c r="C204">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D204">
         <v>195076</v>
@@ -4096,7 +4096,7 @@
         <v>27</v>
       </c>
       <c r="C205">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D205">
         <v>119871</v>
@@ -4116,7 +4116,7 @@
         <v>27</v>
       </c>
       <c r="C206">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D206">
         <v>133697</v>
@@ -4136,7 +4136,7 @@
         <v>27</v>
       </c>
       <c r="C207">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D207">
         <v>143775</v>
@@ -4159,7 +4159,7 @@
         <v>27</v>
       </c>
       <c r="C208">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D208">
         <v>199620</v>
@@ -4182,7 +4182,7 @@
         <v>27</v>
       </c>
       <c r="C209">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D209">
         <v>109875</v>
@@ -4205,7 +4205,7 @@
         <v>27</v>
       </c>
       <c r="C210">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D210">
         <v>152359</v>
@@ -4225,7 +4225,7 @@
         <v>27</v>
       </c>
       <c r="C211">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D211">
         <v>210922</v>
@@ -4248,7 +4248,7 @@
         <v>27</v>
       </c>
       <c r="C212">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D212">
         <v>197173</v>
@@ -4268,7 +4268,7 @@
         <v>27</v>
       </c>
       <c r="C213">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D213">
         <v>244220</v>
@@ -4291,7 +4291,7 @@
         <v>28</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D214">
         <v>169076</v>
@@ -4308,7 +4308,7 @@
         <v>28</v>
       </c>
       <c r="C215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D215">
         <v>167071</v>
@@ -4325,7 +4325,7 @@
         <v>28</v>
       </c>
       <c r="C216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D216">
         <v>169238</v>
@@ -4342,7 +4342,7 @@
         <v>28</v>
       </c>
       <c r="C217">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D217">
         <v>202558</v>
@@ -4359,7 +4359,7 @@
         <v>28</v>
       </c>
       <c r="C218">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D218">
         <v>249957</v>
@@ -4376,7 +4376,7 @@
         <v>28</v>
       </c>
       <c r="C219">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D219">
         <v>123012</v>
@@ -4393,7 +4393,7 @@
         <v>28</v>
       </c>
       <c r="C220">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D220">
         <v>173571</v>
@@ -4410,7 +4410,7 @@
         <v>28</v>
       </c>
       <c r="C221">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D221">
         <v>179106</v>
@@ -4427,7 +4427,7 @@
         <v>29</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D222">
         <v>82133</v>
@@ -4447,7 +4447,7 @@
         <v>29</v>
       </c>
       <c r="C223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D223">
         <v>181108</v>
@@ -4464,7 +4464,7 @@
         <v>29</v>
       </c>
       <c r="C224">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D224">
         <v>91992</v>
@@ -4481,7 +4481,7 @@
         <v>29</v>
       </c>
       <c r="C225">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D225">
         <v>74176</v>
@@ -4501,7 +4501,7 @@
         <v>30</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D226">
         <v>231604</v>
@@ -4521,7 +4521,7 @@
         <v>30</v>
       </c>
       <c r="C227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D227">
         <v>153331</v>
@@ -4544,7 +4544,7 @@
         <v>30</v>
       </c>
       <c r="C228">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D228">
         <v>102484</v>
@@ -4564,7 +4564,7 @@
         <v>30</v>
       </c>
       <c r="C229">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D229">
         <v>92385</v>
@@ -4584,7 +4584,7 @@
         <v>30</v>
       </c>
       <c r="C230">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D230">
         <v>185494</v>
@@ -4604,7 +4604,7 @@
         <v>30</v>
       </c>
       <c r="C231">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D231">
         <v>98588</v>
@@ -4627,7 +4627,7 @@
         <v>30</v>
       </c>
       <c r="C232">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D232">
         <v>92390</v>
@@ -4647,7 +4647,7 @@
         <v>30</v>
       </c>
       <c r="C233">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D233">
         <v>69949</v>
@@ -4667,7 +4667,7 @@
         <v>31</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D234">
         <v>201758</v>
@@ -4687,7 +4687,7 @@
         <v>32</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D235">
         <v>81939</v>
@@ -4704,7 +4704,7 @@
         <v>32</v>
       </c>
       <c r="C236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D236">
         <v>128739</v>
@@ -4724,7 +4724,7 @@
         <v>32</v>
       </c>
       <c r="C237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -4738,7 +4738,7 @@
         <v>33</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D238">
         <v>116045</v>
@@ -4755,7 +4755,7 @@
         <v>33</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D239">
         <v>115395</v>
@@ -4772,7 +4772,7 @@
         <v>33</v>
       </c>
       <c r="C240">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D240">
         <v>146653</v>
@@ -4789,7 +4789,7 @@
         <v>33</v>
       </c>
       <c r="C241">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D241">
         <v>128680</v>
@@ -4809,7 +4809,7 @@
         <v>34</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D242">
         <v>161828</v>
@@ -4829,7 +4829,7 @@
         <v>34</v>
       </c>
       <c r="C243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D243">
         <v>174386</v>
@@ -4846,7 +4846,7 @@
         <v>35</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D244">
         <v>178655</v>
@@ -4866,7 +4866,7 @@
         <v>35</v>
       </c>
       <c r="C245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D245">
         <v>104726</v>
@@ -4886,7 +4886,7 @@
         <v>35</v>
       </c>
       <c r="C246">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D246">
         <v>115212</v>
@@ -4903,7 +4903,7 @@
         <v>35</v>
       </c>
       <c r="C247">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D247">
         <v>108373</v>
@@ -4923,7 +4923,7 @@
         <v>35</v>
       </c>
       <c r="C248">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D248">
         <v>156863</v>
@@ -4943,7 +4943,7 @@
         <v>35</v>
       </c>
       <c r="C249">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D249">
         <v>150971</v>
@@ -4966,7 +4966,7 @@
         <v>35</v>
       </c>
       <c r="C250">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D250">
         <v>146350</v>
@@ -4986,7 +4986,7 @@
         <v>35</v>
       </c>
       <c r="C251">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D251">
         <v>124381</v>
@@ -5006,7 +5006,7 @@
         <v>35</v>
       </c>
       <c r="C252">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D252">
         <v>151823</v>
@@ -5026,7 +5026,7 @@
         <v>35</v>
       </c>
       <c r="C253">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D253">
         <v>181591</v>
@@ -5043,7 +5043,7 @@
         <v>35</v>
       </c>
       <c r="C254">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D254">
         <v>128232</v>
@@ -5063,7 +5063,7 @@
         <v>35</v>
       </c>
       <c r="C255">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D255">
         <v>162383</v>
@@ -5086,7 +5086,7 @@
         <v>36</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D256">
         <v>179380</v>
@@ -5103,7 +5103,7 @@
         <v>36</v>
       </c>
       <c r="C257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D257">
         <v>84514</v>
@@ -5120,7 +5120,7 @@
         <v>36</v>
       </c>
       <c r="C258">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D258">
         <v>167848</v>
@@ -5137,7 +5137,7 @@
         <v>37</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D259">
         <v>121640</v>
@@ -5154,7 +5154,7 @@
         <v>37</v>
       </c>
       <c r="C260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D260">
         <v>103643</v>
@@ -5171,7 +5171,7 @@
         <v>37</v>
       </c>
       <c r="C261">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D261">
         <v>156315</v>
@@ -5188,7 +5188,7 @@
         <v>37</v>
       </c>
       <c r="C262">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D262">
         <v>173796</v>
@@ -5205,7 +5205,7 @@
         <v>37</v>
       </c>
       <c r="C263">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D263">
         <v>184179</v>
@@ -5225,7 +5225,7 @@
         <v>37</v>
       </c>
       <c r="C264">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D264">
         <v>126018</v>
@@ -5242,7 +5242,7 @@
         <v>37</v>
       </c>
       <c r="C265">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D265">
         <v>158972</v>
@@ -5259,7 +5259,7 @@
         <v>37</v>
       </c>
       <c r="C266">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D266">
         <v>199747</v>
@@ -5273,7 +5273,7 @@
         <v>37</v>
       </c>
       <c r="C267">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D267">
         <v>200266</v>
@@ -5287,7 +5287,7 @@
         <v>37</v>
       </c>
       <c r="C268">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D268">
         <v>170286</v>
@@ -5304,7 +5304,7 @@
         <v>37</v>
       </c>
       <c r="C269">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D269">
         <v>78066</v>
@@ -5324,7 +5324,7 @@
         <v>37</v>
       </c>
       <c r="C270">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D270">
         <v>219165</v>
@@ -5341,7 +5341,7 @@
         <v>37</v>
       </c>
       <c r="C271">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D271">
         <v>187382</v>
@@ -5361,7 +5361,7 @@
         <v>37</v>
       </c>
       <c r="C272">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D272">
         <v>134603</v>
@@ -5378,7 +5378,7 @@
         <v>37</v>
       </c>
       <c r="C273">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D273">
         <v>150058</v>
@@ -5395,7 +5395,7 @@
         <v>37</v>
       </c>
       <c r="C274">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D274">
         <v>192671</v>
@@ -5409,7 +5409,7 @@
         <v>37</v>
       </c>
       <c r="C275">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -5423,7 +5423,7 @@
         <v>37</v>
       </c>
       <c r="C276">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D276">
         <v>149056</v>
@@ -5440,7 +5440,7 @@
         <v>37</v>
       </c>
       <c r="C277">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D277">
         <v>126641</v>
@@ -5457,7 +5457,7 @@
         <v>37</v>
       </c>
       <c r="C278">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D278">
         <v>195005</v>
@@ -5474,7 +5474,7 @@
         <v>37</v>
       </c>
       <c r="C279">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D279">
         <v>72637</v>
@@ -5494,7 +5494,7 @@
         <v>37</v>
       </c>
       <c r="C280">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D280">
         <v>103955</v>
@@ -5511,7 +5511,7 @@
         <v>37</v>
       </c>
       <c r="C281">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D281">
         <v>107822</v>
@@ -5528,7 +5528,7 @@
         <v>37</v>
       </c>
       <c r="C282">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D282">
         <v>108928</v>
@@ -5545,7 +5545,7 @@
         <v>37</v>
       </c>
       <c r="C283">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D283">
         <v>169199</v>
@@ -5562,7 +5562,7 @@
         <v>37</v>
       </c>
       <c r="C284">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D284">
         <v>193518</v>
@@ -5579,7 +5579,7 @@
         <v>37</v>
       </c>
       <c r="C285">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D285">
         <v>99222</v>
@@ -5596,7 +5596,7 @@
         <v>38</v>
       </c>
       <c r="C286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D286">
         <v>237938</v>
@@ -5616,7 +5616,7 @@
         <v>38</v>
       </c>
       <c r="C287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D287">
         <v>167299</v>
@@ -5633,7 +5633,7 @@
         <v>38</v>
       </c>
       <c r="C288">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D288">
         <v>104007</v>
@@ -5650,7 +5650,7 @@
         <v>38</v>
       </c>
       <c r="C289">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D289">
         <v>275501</v>
@@ -5667,7 +5667,7 @@
         <v>38</v>
       </c>
       <c r="C290">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D290">
         <v>145597</v>
@@ -5684,7 +5684,7 @@
         <v>38</v>
       </c>
       <c r="C291">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D291">
         <v>141480</v>
@@ -5701,7 +5701,7 @@
         <v>38</v>
       </c>
       <c r="C292">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D292">
         <v>134344</v>
@@ -5718,7 +5718,7 @@
         <v>38</v>
       </c>
       <c r="C293">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D293">
         <v>131428</v>
@@ -5735,7 +5735,7 @@
         <v>38</v>
       </c>
       <c r="C294">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D294">
         <v>137335</v>
@@ -5752,7 +5752,7 @@
         <v>38</v>
       </c>
       <c r="C295">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D295">
         <v>128114</v>
@@ -5769,7 +5769,7 @@
         <v>38</v>
       </c>
       <c r="C296">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D296">
         <v>127972</v>
@@ -5786,7 +5786,7 @@
         <v>38</v>
       </c>
       <c r="C297">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D297">
         <v>232451</v>
@@ -5803,7 +5803,7 @@
         <v>38</v>
       </c>
       <c r="C298">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D298">
         <v>153691</v>
@@ -5820,7 +5820,7 @@
         <v>39</v>
       </c>
       <c r="C299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D299">
         <v>80186</v>
@@ -5840,7 +5840,7 @@
         <v>40</v>
       </c>
       <c r="C300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D300">
         <v>139279</v>
@@ -5857,7 +5857,7 @@
         <v>40</v>
       </c>
       <c r="C301">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D301">
         <v>107859</v>
@@ -5874,7 +5874,7 @@
         <v>40</v>
       </c>
       <c r="C302">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D302">
         <v>189536</v>
@@ -5891,7 +5891,7 @@
         <v>40</v>
       </c>
       <c r="C303">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D303">
         <v>96334</v>
@@ -5908,7 +5908,7 @@
         <v>40</v>
       </c>
       <c r="C304">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D304">
         <v>98045</v>
@@ -5925,7 +5925,7 @@
         <v>40</v>
       </c>
       <c r="C305">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D305">
         <v>86938</v>
@@ -5942,7 +5942,7 @@
         <v>40</v>
       </c>
       <c r="C306">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D306">
         <v>87602</v>
@@ -5959,7 +5959,7 @@
         <v>40</v>
       </c>
       <c r="C307">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D307">
         <v>85313</v>
@@ -5979,7 +5979,7 @@
         <v>40</v>
       </c>
       <c r="C308">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D308">
         <v>187926</v>
@@ -5996,7 +5996,7 @@
         <v>40</v>
       </c>
       <c r="C309">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D309">
         <v>105947</v>
@@ -6013,7 +6013,7 @@
         <v>40</v>
       </c>
       <c r="C310">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D310">
         <v>233285</v>
@@ -6030,7 +6030,7 @@
         <v>40</v>
       </c>
       <c r="C311">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D311">
         <v>109455</v>
@@ -6050,7 +6050,7 @@
         <v>40</v>
       </c>
       <c r="C312">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D312">
         <v>203430</v>
@@ -6067,7 +6067,7 @@
         <v>40</v>
       </c>
       <c r="C313">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D313">
         <v>127547</v>
@@ -6084,7 +6084,7 @@
         <v>40</v>
       </c>
       <c r="C314">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D314">
         <v>110272</v>
@@ -6101,7 +6101,7 @@
         <v>40</v>
       </c>
       <c r="C315">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D315">
         <v>117296</v>
@@ -6118,7 +6118,7 @@
         <v>41</v>
       </c>
       <c r="C316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E316">
         <v>0</v>
@@ -6132,7 +6132,7 @@
         <v>41</v>
       </c>
       <c r="C317">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D317">
         <v>62307</v>
@@ -6149,7 +6149,7 @@
         <v>41</v>
       </c>
       <c r="C318">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D318">
         <v>63008</v>
@@ -6166,7 +6166,7 @@
         <v>41</v>
       </c>
       <c r="C319">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D319">
         <v>76380</v>
@@ -6186,7 +6186,7 @@
         <v>41</v>
       </c>
       <c r="C320">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D320">
         <v>103122</v>
@@ -6206,7 +6206,7 @@
         <v>42</v>
       </c>
       <c r="C321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D321">
         <v>207190</v>
@@ -6226,7 +6226,7 @@
         <v>42</v>
       </c>
       <c r="C322">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D322">
         <v>103383</v>
@@ -6243,7 +6243,7 @@
         <v>42</v>
       </c>
       <c r="C323">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D323">
         <v>256159</v>
@@ -6257,7 +6257,7 @@
         <v>42</v>
       </c>
       <c r="C324">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D324">
         <v>216442</v>
@@ -6277,7 +6277,7 @@
         <v>42</v>
       </c>
       <c r="C325">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D325">
         <v>178405</v>
@@ -6294,7 +6294,7 @@
         <v>43</v>
       </c>
       <c r="C326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D326">
         <v>237882</v>
@@ -6311,7 +6311,7 @@
         <v>43</v>
       </c>
       <c r="C327">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D327">
         <v>310770</v>
@@ -6328,7 +6328,7 @@
         <v>43</v>
       </c>
       <c r="C328">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -6342,7 +6342,7 @@
         <v>43</v>
       </c>
       <c r="C329">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D329">
         <v>111158</v>
@@ -6359,7 +6359,7 @@
         <v>43</v>
       </c>
       <c r="C330">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D330">
         <v>97686</v>
@@ -6376,7 +6376,7 @@
         <v>43</v>
       </c>
       <c r="C331">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D331">
         <v>151800</v>
@@ -6393,7 +6393,7 @@
         <v>43</v>
       </c>
       <c r="C332">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D332">
         <v>147808</v>
@@ -6410,7 +6410,7 @@
         <v>43</v>
       </c>
       <c r="C333">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D333">
         <v>172571</v>
@@ -6427,7 +6427,7 @@
         <v>43</v>
       </c>
       <c r="C334">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D334">
         <v>105958</v>
@@ -6444,7 +6444,7 @@
         <v>43</v>
       </c>
       <c r="C335">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D335">
         <v>87956</v>
@@ -6461,7 +6461,7 @@
         <v>43</v>
       </c>
       <c r="C336">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D336">
         <v>111025</v>
@@ -6478,7 +6478,7 @@
         <v>43</v>
       </c>
       <c r="C337">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D337">
         <v>133607</v>
@@ -6495,7 +6495,7 @@
         <v>43</v>
       </c>
       <c r="C338">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D338">
         <v>0</v>
@@ -6509,7 +6509,7 @@
         <v>43</v>
       </c>
       <c r="C339">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D339">
         <v>252709</v>
@@ -6526,7 +6526,7 @@
         <v>43</v>
       </c>
       <c r="C340">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D340">
         <v>120233</v>
@@ -6546,7 +6546,7 @@
         <v>43</v>
       </c>
       <c r="C341">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D341">
         <v>132969</v>
@@ -6566,7 +6566,7 @@
         <v>43</v>
       </c>
       <c r="C342">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D342">
         <v>155766</v>
@@ -6583,7 +6583,7 @@
         <v>43</v>
       </c>
       <c r="C343">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E343">
         <v>0</v>
@@ -6597,7 +6597,7 @@
         <v>44</v>
       </c>
       <c r="C344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D344">
         <v>129272</v>
@@ -6614,7 +6614,7 @@
         <v>44</v>
       </c>
       <c r="C345">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D345">
         <v>131968</v>
@@ -6631,7 +6631,7 @@
         <v>45</v>
       </c>
       <c r="C346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D346">
         <v>117487</v>
@@ -6651,7 +6651,7 @@
         <v>45</v>
       </c>
       <c r="C347">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D347">
         <v>109488</v>
@@ -6668,7 +6668,7 @@
         <v>45</v>
       </c>
       <c r="C348">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D348">
         <v>72993</v>
@@ -6685,7 +6685,7 @@
         <v>45</v>
       </c>
       <c r="C349">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D349">
         <v>91106</v>
@@ -6702,7 +6702,7 @@
         <v>45</v>
       </c>
       <c r="C350">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D350">
         <v>114936</v>
@@ -6719,7 +6719,7 @@
         <v>45</v>
       </c>
       <c r="C351">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D351">
         <v>179351</v>
@@ -6742,7 +6742,7 @@
         <v>45</v>
       </c>
       <c r="C352">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D352">
         <v>110378</v>
@@ -6759,7 +6759,7 @@
         <v>46</v>
       </c>
       <c r="C353">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D353">
         <v>132792</v>
@@ -6776,7 +6776,7 @@
         <v>47</v>
       </c>
       <c r="C354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D354">
         <v>38513</v>
@@ -6793,7 +6793,7 @@
         <v>47</v>
       </c>
       <c r="C355">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D355">
         <v>68373</v>
@@ -6810,7 +6810,7 @@
         <v>47</v>
       </c>
       <c r="C356">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D356">
         <v>76664</v>
@@ -6827,7 +6827,7 @@
         <v>47</v>
       </c>
       <c r="C357">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D357">
         <v>89018</v>
@@ -6844,7 +6844,7 @@
         <v>47</v>
       </c>
       <c r="C358">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D358">
         <v>170729</v>
@@ -6861,7 +6861,7 @@
         <v>47</v>
       </c>
       <c r="C359">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D359">
         <v>61940</v>
@@ -6878,7 +6878,7 @@
         <v>47</v>
       </c>
       <c r="C360">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D360">
         <v>64938</v>
@@ -6895,7 +6895,7 @@
         <v>47</v>
       </c>
       <c r="C361">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D361">
         <v>70426</v>
@@ -6912,7 +6912,7 @@
         <v>47</v>
       </c>
       <c r="C362">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D362">
         <v>169911</v>
@@ -6929,7 +6929,7 @@
         <v>48</v>
       </c>
       <c r="C363">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D363">
         <v>62635</v>
@@ -6949,7 +6949,7 @@
         <v>48</v>
       </c>
       <c r="C364">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D364">
         <v>100077</v>
@@ -6972,7 +6972,7 @@
         <v>48</v>
       </c>
       <c r="C365">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D365">
         <v>108780</v>
@@ -6995,7 +6995,7 @@
         <v>48</v>
       </c>
       <c r="C366">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E366">
         <v>215705</v>
@@ -7012,7 +7012,7 @@
         <v>48</v>
       </c>
       <c r="C367">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E367">
         <v>155149</v>
@@ -7029,7 +7029,7 @@
         <v>48</v>
       </c>
       <c r="C368">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D368">
         <v>106510</v>
@@ -7049,7 +7049,7 @@
         <v>48</v>
       </c>
       <c r="C369">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D369">
         <v>111774</v>
@@ -7066,7 +7066,7 @@
         <v>48</v>
       </c>
       <c r="C370">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E370">
         <v>0</v>
@@ -7080,7 +7080,7 @@
         <v>48</v>
       </c>
       <c r="C371">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D371">
         <v>151884</v>
@@ -7097,7 +7097,7 @@
         <v>48</v>
       </c>
       <c r="C372">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D372">
         <v>119728</v>
@@ -7117,7 +7117,7 @@
         <v>48</v>
       </c>
       <c r="C373">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E373">
         <v>201476</v>
@@ -7134,7 +7134,7 @@
         <v>48</v>
       </c>
       <c r="C374">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D374">
         <v>75938</v>
@@ -7154,7 +7154,7 @@
         <v>48</v>
       </c>
       <c r="C375">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E375">
         <v>198730</v>
@@ -7174,7 +7174,7 @@
         <v>48</v>
       </c>
       <c r="C376">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D376">
         <v>98815</v>
@@ -7191,7 +7191,7 @@
         <v>48</v>
       </c>
       <c r="C377">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D377">
         <v>101592</v>
@@ -7214,7 +7214,7 @@
         <v>48</v>
       </c>
       <c r="C378">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D378">
         <v>148027</v>
@@ -7234,7 +7234,7 @@
         <v>48</v>
       </c>
       <c r="C379">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D379">
         <v>86352</v>
@@ -7254,7 +7254,7 @@
         <v>48</v>
       </c>
       <c r="C380">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D380">
         <v>149928</v>
@@ -7274,7 +7274,7 @@
         <v>48</v>
       </c>
       <c r="C381">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E381">
         <v>175980</v>
@@ -7294,7 +7294,7 @@
         <v>48</v>
       </c>
       <c r="C382">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D382">
         <v>149522</v>
@@ -7314,7 +7314,7 @@
         <v>48</v>
       </c>
       <c r="C383">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D383">
         <v>129253</v>
@@ -7337,7 +7337,7 @@
         <v>48</v>
       </c>
       <c r="C384">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D384">
         <v>123462</v>
@@ -7354,7 +7354,7 @@
         <v>48</v>
       </c>
       <c r="C385">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D385">
         <v>106049</v>
@@ -7374,7 +7374,7 @@
         <v>48</v>
       </c>
       <c r="C386">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D386">
         <v>107845</v>
@@ -7397,7 +7397,7 @@
         <v>48</v>
       </c>
       <c r="C387">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D387">
         <v>116552</v>
@@ -7417,7 +7417,7 @@
         <v>48</v>
       </c>
       <c r="C388">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D388">
         <v>93954</v>
@@ -7437,7 +7437,7 @@
         <v>48</v>
       </c>
       <c r="C389">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D389">
         <v>87931</v>
@@ -7454,7 +7454,7 @@
         <v>48</v>
       </c>
       <c r="C390">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D390">
         <v>121980</v>
@@ -7474,7 +7474,7 @@
         <v>48</v>
       </c>
       <c r="C391">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D391">
         <v>95508</v>
@@ -7497,7 +7497,7 @@
         <v>48</v>
       </c>
       <c r="C392">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D392">
         <v>169905</v>
@@ -7520,7 +7520,7 @@
         <v>48</v>
       </c>
       <c r="C393">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D393">
         <v>103543</v>
@@ -7540,7 +7540,7 @@
         <v>48</v>
       </c>
       <c r="C394">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E394">
         <v>162212</v>
@@ -7560,7 +7560,7 @@
         <v>48</v>
       </c>
       <c r="C395">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D395">
         <v>92914</v>
@@ -7577,7 +7577,7 @@
         <v>48</v>
       </c>
       <c r="C396">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D396">
         <v>104513</v>
@@ -7594,7 +7594,7 @@
         <v>48</v>
       </c>
       <c r="C397">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D397">
         <v>124161</v>
@@ -7617,7 +7617,7 @@
         <v>48</v>
       </c>
       <c r="C398">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E398">
         <v>203779</v>
@@ -7634,7 +7634,7 @@
         <v>49</v>
       </c>
       <c r="C399">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D399">
         <v>65403</v>
@@ -7654,7 +7654,7 @@
         <v>49</v>
       </c>
       <c r="C400">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D400">
         <v>83131</v>
@@ -7671,7 +7671,7 @@
         <v>49</v>
       </c>
       <c r="C401">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D401">
         <v>68104</v>
@@ -7688,7 +7688,7 @@
         <v>49</v>
       </c>
       <c r="C402">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D402">
         <v>96284</v>
@@ -7705,7 +7705,7 @@
         <v>50</v>
       </c>
       <c r="C403">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D403">
         <v>263400</v>
@@ -7719,7 +7719,7 @@
         <v>51</v>
       </c>
       <c r="C404">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D404">
         <v>130320</v>
@@ -7736,7 +7736,7 @@
         <v>51</v>
       </c>
       <c r="C405">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D405">
         <v>106979</v>
@@ -7753,7 +7753,7 @@
         <v>51</v>
       </c>
       <c r="C406">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D406">
         <v>199748</v>
@@ -7770,7 +7770,7 @@
         <v>51</v>
       </c>
       <c r="C407">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D407">
         <v>191939</v>
@@ -7787,7 +7787,7 @@
         <v>51</v>
       </c>
       <c r="C408">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D408">
         <v>147656</v>
@@ -7804,7 +7804,7 @@
         <v>51</v>
       </c>
       <c r="C409">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D409">
         <v>111699</v>
@@ -7821,7 +7821,7 @@
         <v>51</v>
       </c>
       <c r="C410">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D410">
         <v>158692</v>
@@ -7838,7 +7838,7 @@
         <v>51</v>
       </c>
       <c r="C411">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D411">
         <v>245775</v>
@@ -7855,7 +7855,7 @@
         <v>51</v>
       </c>
       <c r="C412">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D412">
         <v>87822</v>
@@ -7872,7 +7872,7 @@
         <v>51</v>
       </c>
       <c r="C413">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D413">
         <v>181977</v>
@@ -7889,7 +7889,7 @@
         <v>51</v>
       </c>
       <c r="C414">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D414">
         <v>0</v>
@@ -7903,7 +7903,7 @@
         <v>52</v>
       </c>
       <c r="C415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D415">
         <v>179521</v>
@@ -7920,7 +7920,7 @@
         <v>52</v>
       </c>
       <c r="C416">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D416">
         <v>195661</v>
@@ -7937,7 +7937,7 @@
         <v>52</v>
       </c>
       <c r="C417">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D417">
         <v>115277</v>
@@ -7954,7 +7954,7 @@
         <v>52</v>
       </c>
       <c r="C418">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E418">
         <v>211347</v>
@@ -7968,7 +7968,7 @@
         <v>52</v>
       </c>
       <c r="C419">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D419">
         <v>116110</v>
@@ -7985,7 +7985,7 @@
         <v>52</v>
       </c>
       <c r="C420">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D420">
         <v>189168</v>
@@ -8002,7 +8002,7 @@
         <v>52</v>
       </c>
       <c r="C421">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D421">
         <v>343369</v>
@@ -8016,7 +8016,7 @@
         <v>52</v>
       </c>
       <c r="C422">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D422">
         <v>116268</v>
@@ -8033,7 +8033,7 @@
         <v>52</v>
       </c>
       <c r="C423">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D423">
         <v>186787</v>
@@ -8050,7 +8050,7 @@
         <v>52</v>
       </c>
       <c r="C424">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D424">
         <v>159208</v>
@@ -8067,7 +8067,7 @@
         <v>53</v>
       </c>
       <c r="C425">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D425">
         <v>73025</v>
@@ -8084,7 +8084,7 @@
         <v>53</v>
       </c>
       <c r="C426">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D426">
         <v>100551</v>
@@ -8101,7 +8101,7 @@
         <v>53</v>
       </c>
       <c r="C427">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D427">
         <v>49309</v>
@@ -8121,7 +8121,7 @@
         <v>54</v>
       </c>
       <c r="C428">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D428">
         <v>106857</v>
@@ -8141,7 +8141,7 @@
         <v>54</v>
       </c>
       <c r="C429">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D429">
         <v>275016</v>
@@ -8158,7 +8158,7 @@
         <v>54</v>
       </c>
       <c r="C430">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D430">
         <v>0</v>
@@ -8172,7 +8172,7 @@
         <v>54</v>
       </c>
       <c r="C431">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D431">
         <v>220389</v>
@@ -8189,7 +8189,7 @@
         <v>54</v>
       </c>
       <c r="C432">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D432">
         <v>114469</v>
@@ -8209,7 +8209,7 @@
         <v>54</v>
       </c>
       <c r="C433">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D433">
         <v>132908</v>
@@ -8226,7 +8226,7 @@
         <v>54</v>
       </c>
       <c r="C434">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D434">
         <v>137910</v>
@@ -8243,7 +8243,7 @@
         <v>54</v>
       </c>
       <c r="C435">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D435">
         <v>135648</v>
@@ -8260,7 +8260,7 @@
         <v>55</v>
       </c>
       <c r="C436">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D436">
         <v>75419</v>
